--- a/pathways data dictionary.xlsx
+++ b/pathways data dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/jeremy_cooper_gatesfoundation_org/Documents/Documents/GitHub/pathways-segmentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/jeremy_cooper_gatesfoundation_org/Documents/Documents/GitHub/pathways-segmentation-public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1998" documentId="8_{D23518CC-E1D3-4ECE-9E98-7428ECDD5F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{121AB5FB-2DE1-4FAE-BA26-2A5C7DC47EDD}"/>
+  <xr:revisionPtr revIDLastSave="2518" documentId="8_{D23518CC-E1D3-4ECE-9E98-7428ECDD5F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC0D157-18D3-4156-A7B1-6024230B7060}"/>
   <bookViews>
-    <workbookView xWindow="26090" yWindow="1430" windowWidth="9600" windowHeight="5510" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outcomes" sheetId="25" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1896" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1698">
   <si>
     <t>category</t>
   </si>
@@ -5102,6 +5102,39 @@
   </si>
   <si>
     <t>HH Cows</t>
+  </si>
+  <si>
+    <t>Woman.and.her.past.experiences</t>
+  </si>
+  <si>
+    <t>Healthcare.and.mental.models</t>
+  </si>
+  <si>
+    <t>Natural.and.human.systems</t>
+  </si>
+  <si>
+    <t>Household.relationships</t>
+  </si>
+  <si>
+    <t>Household.economics</t>
+  </si>
+  <si>
+    <t>Community.Support</t>
+  </si>
+  <si>
+    <t>Distance Natal</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Head Female</t>
+  </si>
+  <si>
+    <t>HH Child Labor</t>
+  </si>
+  <si>
+    <t>HH Dropout</t>
   </si>
 </sst>
 </file>
@@ -7259,21 +7292,27 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:C490"/>
+  <dimension ref="A1:I490"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A179" sqref="A179"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>91</v>
       </c>
@@ -7283,8 +7322,26 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -7294,8 +7351,11 @@
       <c r="C2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -7305,8 +7365,11 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1653</v>
       </c>
@@ -7316,8 +7379,11 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1654</v>
       </c>
@@ -7327,8 +7393,11 @@
       <c r="C5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1657</v>
       </c>
@@ -7338,8 +7407,11 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -7349,8 +7421,11 @@
       <c r="C7" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -7360,8 +7435,11 @@
       <c r="C8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -7371,8 +7449,11 @@
       <c r="C9" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -7382,8 +7463,11 @@
       <c r="C10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1659</v>
       </c>
@@ -7393,8 +7477,11 @@
       <c r="C11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -7404,8 +7491,11 @@
       <c r="C12" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -7415,8 +7505,11 @@
       <c r="C13" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>1223</v>
       </c>
@@ -7426,8 +7519,11 @@
       <c r="C14" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>1061</v>
       </c>
@@ -7437,8 +7533,11 @@
       <c r="C15" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>484</v>
       </c>
@@ -7448,8 +7547,11 @@
       <c r="C16" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1068</v>
       </c>
@@ -7459,8 +7561,11 @@
       <c r="C17" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>1092</v>
       </c>
@@ -7470,8 +7575,11 @@
       <c r="C18" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -7481,8 +7589,11 @@
       <c r="C19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -7492,8 +7603,11 @@
       <c r="C20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1047</v>
       </c>
@@ -7503,8 +7617,11 @@
       <c r="C21" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -7514,8 +7631,11 @@
       <c r="C22" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -7525,8 +7645,11 @@
       <c r="C23" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -7536,8 +7659,11 @@
       <c r="C24" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -7547,8 +7673,11 @@
       <c r="C25" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -7558,8 +7687,11 @@
       <c r="C26" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1094</v>
       </c>
@@ -7569,8 +7701,11 @@
       <c r="C27" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>1225</v>
       </c>
@@ -7580,8 +7715,11 @@
       <c r="C28" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -7591,8 +7729,11 @@
       <c r="C29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -7602,8 +7743,11 @@
       <c r="C30" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -7613,8 +7757,11 @@
       <c r="C31" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>1096</v>
       </c>
@@ -7624,8 +7771,11 @@
       <c r="C32" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1098</v>
       </c>
@@ -7635,8 +7785,11 @@
       <c r="C33" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>1100</v>
       </c>
@@ -7646,8 +7799,11 @@
       <c r="C34" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>1227</v>
       </c>
@@ -7657,8 +7813,11 @@
       <c r="C35" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>1229</v>
       </c>
@@ -7668,8 +7827,11 @@
       <c r="C36" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>1231</v>
       </c>
@@ -7679,8 +7841,11 @@
       <c r="C37" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>1233</v>
       </c>
@@ -7690,8 +7855,11 @@
       <c r="C38" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>1235</v>
       </c>
@@ -7701,8 +7869,11 @@
       <c r="C39" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>1237</v>
       </c>
@@ -7712,8 +7883,11 @@
       <c r="C40" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>1239</v>
       </c>
@@ -7723,16 +7897,22 @@
       <c r="C41" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>1660</v>
       </c>
       <c r="B42" t="s">
         <v>1661</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>1102</v>
       </c>
@@ -7742,8 +7922,11 @@
       <c r="C43" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>1189</v>
       </c>
@@ -7753,8 +7936,11 @@
       <c r="C44" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1191</v>
       </c>
@@ -7764,8 +7950,11 @@
       <c r="C45" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1162</v>
       </c>
@@ -7775,8 +7964,11 @@
       <c r="C46" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1164</v>
       </c>
@@ -7786,8 +7978,11 @@
       <c r="C47" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>1207</v>
       </c>
@@ -7797,8 +7992,11 @@
       <c r="C48" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>1209</v>
       </c>
@@ -7808,8 +8006,11 @@
       <c r="C49" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>1211</v>
       </c>
@@ -7819,8 +8020,11 @@
       <c r="C50" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>1213</v>
       </c>
@@ -7830,8 +8034,11 @@
       <c r="C51" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>1215</v>
       </c>
@@ -7841,8 +8048,11 @@
       <c r="C52" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>1217</v>
       </c>
@@ -7852,8 +8062,11 @@
       <c r="C53" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>1219</v>
       </c>
@@ -7863,8 +8076,11 @@
       <c r="C54" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -7874,8 +8090,11 @@
       <c r="C55" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -7885,8 +8104,11 @@
       <c r="C56" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -7896,8 +8118,11 @@
       <c r="C57" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>126</v>
       </c>
@@ -7907,8 +8132,11 @@
       <c r="C58" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>1104</v>
       </c>
@@ -7918,8 +8146,11 @@
       <c r="C59" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>1049</v>
       </c>
@@ -7929,8 +8160,11 @@
       <c r="C60" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>1241</v>
       </c>
@@ -7940,8 +8174,11 @@
       <c r="C61" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>1243</v>
       </c>
@@ -7951,8 +8188,11 @@
       <c r="C62" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>1245</v>
       </c>
@@ -7962,8 +8202,11 @@
       <c r="C63" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>1247</v>
       </c>
@@ -7973,8 +8216,11 @@
       <c r="C64" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>1070</v>
       </c>
@@ -7984,8 +8230,11 @@
       <c r="C65" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>1042</v>
       </c>
@@ -7995,8 +8244,11 @@
       <c r="C66" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>1072</v>
       </c>
@@ -8006,8 +8258,11 @@
       <c r="C67" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -8017,8 +8272,11 @@
       <c r="C68" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -8028,8 +8286,11 @@
       <c r="C69" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>133</v>
       </c>
@@ -8039,8 +8300,11 @@
       <c r="C70" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -8050,8 +8314,11 @@
       <c r="C71" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -8061,8 +8328,11 @@
       <c r="C72" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -8072,8 +8342,11 @@
       <c r="C73" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>142</v>
       </c>
@@ -8083,8 +8356,11 @@
       <c r="C74" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>143</v>
       </c>
@@ -8094,8 +8370,11 @@
       <c r="C75" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -8105,8 +8384,11 @@
       <c r="C76" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>146</v>
       </c>
@@ -8116,30 +8398,39 @@
       <c r="C77" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>1249</v>
       </c>
       <c r="B78" t="s">
-        <v>1249</v>
+        <v>1693</v>
       </c>
       <c r="C78" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>1074</v>
       </c>
       <c r="B79" t="s">
-        <v>1074</v>
+        <v>1694</v>
       </c>
       <c r="C79" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>149</v>
       </c>
@@ -8149,8 +8440,11 @@
       <c r="C80" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>511</v>
       </c>
@@ -8160,8 +8454,11 @@
       <c r="C81" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -8171,8 +8468,11 @@
       <c r="C82" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>516</v>
       </c>
@@ -8182,8 +8482,11 @@
       <c r="C83" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>151</v>
       </c>
@@ -8193,8 +8496,11 @@
       <c r="C84" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -8204,8 +8510,11 @@
       <c r="C85" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>153</v>
       </c>
@@ -8215,8 +8524,11 @@
       <c r="C86" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>154</v>
       </c>
@@ -8226,8 +8538,11 @@
       <c r="C87" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -8237,8 +8552,11 @@
       <c r="C88" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -8248,8 +8566,11 @@
       <c r="C89" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>1662</v>
       </c>
@@ -8259,8 +8580,11 @@
       <c r="C90" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -8270,8 +8594,11 @@
       <c r="C91" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -8281,8 +8608,11 @@
       <c r="C92" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>163</v>
       </c>
@@ -8292,8 +8622,11 @@
       <c r="C93" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -8303,8 +8636,11 @@
       <c r="C94" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -8314,8 +8650,11 @@
       <c r="C95" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>166</v>
       </c>
@@ -8325,8 +8664,11 @@
       <c r="C96" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>1251</v>
       </c>
@@ -8336,8 +8678,11 @@
       <c r="C97" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>536</v>
       </c>
@@ -8347,8 +8692,11 @@
       <c r="C98" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -8358,8 +8706,11 @@
       <c r="C99" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>170</v>
       </c>
@@ -8369,8 +8720,11 @@
       <c r="C100" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -8380,8 +8734,11 @@
       <c r="C101" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>545</v>
       </c>
@@ -8391,8 +8748,11 @@
       <c r="C102" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>548</v>
       </c>
@@ -8402,8 +8762,11 @@
       <c r="C103" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -8413,8 +8776,11 @@
       <c r="C104" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>173</v>
       </c>
@@ -8424,8 +8790,11 @@
       <c r="C105" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>174</v>
       </c>
@@ -8435,8 +8804,11 @@
       <c r="C106" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>557</v>
       </c>
@@ -8446,8 +8818,11 @@
       <c r="C107" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -8457,8 +8832,11 @@
       <c r="C108" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>561</v>
       </c>
@@ -8468,8 +8846,11 @@
       <c r="C109" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>176</v>
       </c>
@@ -8479,8 +8860,11 @@
       <c r="C110" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>177</v>
       </c>
@@ -8490,8 +8874,11 @@
       <c r="C111" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>178</v>
       </c>
@@ -8501,8 +8888,11 @@
       <c r="C112" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>179</v>
       </c>
@@ -8512,8 +8902,11 @@
       <c r="C113" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>180</v>
       </c>
@@ -8523,8 +8916,11 @@
       <c r="C114" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>181</v>
       </c>
@@ -8534,8 +8930,11 @@
       <c r="C115" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>182</v>
       </c>
@@ -8545,8 +8944,11 @@
       <c r="C116" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>183</v>
       </c>
@@ -8556,8 +8958,11 @@
       <c r="C117" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>184</v>
       </c>
@@ -8567,8 +8972,11 @@
       <c r="C118" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>582</v>
       </c>
@@ -8578,8 +8986,11 @@
       <c r="C119" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>185</v>
       </c>
@@ -8589,8 +9000,11 @@
       <c r="C120" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>186</v>
       </c>
@@ -8600,8 +9014,11 @@
       <c r="C121" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>1253</v>
       </c>
@@ -8611,8 +9028,11 @@
       <c r="C122" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>1063</v>
       </c>
@@ -8622,8 +9042,11 @@
       <c r="C123" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>589</v>
       </c>
@@ -8633,8 +9056,11 @@
       <c r="C124" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>1255</v>
       </c>
@@ -8644,8 +9070,11 @@
       <c r="C125" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>592</v>
       </c>
@@ -8655,8 +9084,11 @@
       <c r="C126" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>1257</v>
       </c>
@@ -8666,8 +9098,11 @@
       <c r="C127" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>1259</v>
       </c>
@@ -8677,8 +9112,11 @@
       <c r="C128" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>595</v>
       </c>
@@ -8688,8 +9126,11 @@
       <c r="C129" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>1261</v>
       </c>
@@ -8699,8 +9140,11 @@
       <c r="C130" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>1263</v>
       </c>
@@ -8710,8 +9154,11 @@
       <c r="C131" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>187</v>
       </c>
@@ -8721,8 +9168,11 @@
       <c r="C132" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>600</v>
       </c>
@@ -8732,8 +9182,11 @@
       <c r="C133" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>1065</v>
       </c>
@@ -8743,8 +9196,11 @@
       <c r="C134" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>603</v>
       </c>
@@ -8754,8 +9210,11 @@
       <c r="C135" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>606</v>
       </c>
@@ -8765,8 +9224,11 @@
       <c r="C136" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>188</v>
       </c>
@@ -8776,8 +9238,11 @@
       <c r="C137" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>191</v>
       </c>
@@ -8787,8 +9252,11 @@
       <c r="C138" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>192</v>
       </c>
@@ -8798,16 +9266,22 @@
       <c r="C139" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>1665</v>
       </c>
       <c r="B140" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>1166</v>
       </c>
@@ -8817,8 +9291,11 @@
       <c r="C141" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>193</v>
       </c>
@@ -8828,8 +9305,11 @@
       <c r="C142" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>195</v>
       </c>
@@ -8839,8 +9319,11 @@
       <c r="C143" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>196</v>
       </c>
@@ -8850,8 +9333,11 @@
       <c r="C144" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>612</v>
       </c>
@@ -8861,8 +9347,11 @@
       <c r="C145" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>199</v>
       </c>
@@ -8872,8 +9361,11 @@
       <c r="C146" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>615</v>
       </c>
@@ -8883,8 +9375,11 @@
       <c r="C147" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>618</v>
       </c>
@@ -8894,8 +9389,11 @@
       <c r="C148" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>621</v>
       </c>
@@ -8905,8 +9403,11 @@
       <c r="C149" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>624</v>
       </c>
@@ -8916,8 +9417,11 @@
       <c r="C150" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>202</v>
       </c>
@@ -8927,8 +9431,11 @@
       <c r="C151" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>1265</v>
       </c>
@@ -8938,8 +9445,11 @@
       <c r="C152" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>1267</v>
       </c>
@@ -8949,8 +9459,11 @@
       <c r="C153" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>205</v>
       </c>
@@ -8960,8 +9473,11 @@
       <c r="C154" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -8971,8 +9487,11 @@
       <c r="C155" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>207</v>
       </c>
@@ -8982,8 +9501,11 @@
       <c r="C156" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>1269</v>
       </c>
@@ -8993,8 +9515,11 @@
       <c r="C157" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>209</v>
       </c>
@@ -9004,8 +9529,11 @@
       <c r="C158" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>210</v>
       </c>
@@ -9015,8 +9543,11 @@
       <c r="C159" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>211</v>
       </c>
@@ -9026,8 +9557,11 @@
       <c r="C160" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>212</v>
       </c>
@@ -9037,8 +9571,11 @@
       <c r="C161" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>213</v>
       </c>
@@ -9048,19 +9585,25 @@
       <c r="C162" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>1168</v>
       </c>
       <c r="B163" t="s">
-        <v>1168</v>
+        <v>1695</v>
       </c>
       <c r="C163" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -9070,8 +9613,11 @@
       <c r="C164" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>639</v>
       </c>
@@ -9081,8 +9627,11 @@
       <c r="C165" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>217</v>
       </c>
@@ -9092,27 +9641,36 @@
       <c r="C166" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>220</v>
       </c>
       <c r="B167" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>1106</v>
       </c>
       <c r="B168" t="s">
-        <v>1106</v>
+        <v>222</v>
       </c>
       <c r="C168" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>221</v>
       </c>
@@ -9122,8 +9680,11 @@
       <c r="C169" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>224</v>
       </c>
@@ -9133,24 +9694,33 @@
       <c r="C170" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>227</v>
       </c>
       <c r="B171" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>228</v>
       </c>
       <c r="B172" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>229</v>
       </c>
@@ -9160,8 +9730,11 @@
       <c r="C173" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>232</v>
       </c>
@@ -9171,8 +9744,11 @@
       <c r="C174" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>233</v>
       </c>
@@ -9182,8 +9758,11 @@
       <c r="C175" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>646</v>
       </c>
@@ -9193,67 +9772,91 @@
       <c r="C176" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>1685</v>
       </c>
       <c r="B177" t="s">
         <v>1686</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>1667</v>
       </c>
       <c r="B178" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>1669</v>
       </c>
       <c r="B179" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>1671</v>
       </c>
       <c r="B180" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>1674</v>
       </c>
       <c r="B181" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>1673</v>
       </c>
       <c r="B182" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>1108</v>
       </c>
       <c r="B183" t="s">
-        <v>1108</v>
+        <v>1696</v>
       </c>
       <c r="C183" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>234</v>
       </c>
@@ -9263,8 +9866,11 @@
       <c r="C184" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>237</v>
       </c>
@@ -9274,8 +9880,11 @@
       <c r="C185" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>649</v>
       </c>
@@ -9285,8 +9894,11 @@
       <c r="C186" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>240</v>
       </c>
@@ -9296,19 +9908,25 @@
       <c r="C187" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>1110</v>
       </c>
       <c r="B188" t="s">
-        <v>1110</v>
+        <v>1697</v>
       </c>
       <c r="C188" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>243</v>
       </c>
@@ -9318,8 +9936,11 @@
       <c r="C189" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>1112</v>
       </c>
@@ -9329,8 +9950,11 @@
       <c r="C190" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>246</v>
       </c>
@@ -9340,8 +9964,11 @@
       <c r="C191" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>1114</v>
       </c>
@@ -9351,8 +9978,11 @@
       <c r="C192" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>1116</v>
       </c>
@@ -9362,16 +9992,22 @@
       <c r="C193" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>249</v>
       </c>
       <c r="B194" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>250</v>
       </c>
@@ -9381,8 +10017,11 @@
       <c r="C195" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>654</v>
       </c>
@@ -9392,8 +10031,11 @@
       <c r="C196" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>251</v>
       </c>
@@ -9403,8 +10045,11 @@
       <c r="C197" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>253</v>
       </c>
@@ -9414,8 +10059,11 @@
       <c r="C198" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>659</v>
       </c>
@@ -9425,8 +10073,11 @@
       <c r="C199" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>1118</v>
       </c>
@@ -9436,8 +10087,11 @@
       <c r="C200" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>1120</v>
       </c>
@@ -9447,8 +10101,11 @@
       <c r="C201" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>255</v>
       </c>
@@ -9458,8 +10115,11 @@
       <c r="C202" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>256</v>
       </c>
@@ -9469,8 +10129,11 @@
       <c r="C203" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -9480,8 +10143,11 @@
       <c r="C204" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -9491,8 +10157,11 @@
       <c r="C205" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -9502,8 +10171,11 @@
       <c r="C206" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>1122</v>
       </c>
@@ -9513,8 +10185,11 @@
       <c r="C207" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>1124</v>
       </c>
@@ -9524,8 +10199,11 @@
       <c r="C208" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>261</v>
       </c>
@@ -9535,8 +10213,11 @@
       <c r="C209" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>264</v>
       </c>
@@ -9546,8 +10227,11 @@
       <c r="C210" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -9557,8 +10241,11 @@
       <c r="C211" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>267</v>
       </c>
@@ -9568,8 +10255,11 @@
       <c r="C212" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>268</v>
       </c>
@@ -9579,8 +10269,11 @@
       <c r="C213" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>269</v>
       </c>
@@ -9590,8 +10283,11 @@
       <c r="C214" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>270</v>
       </c>
@@ -9601,8 +10297,11 @@
       <c r="C215" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>670</v>
       </c>
@@ -9612,8 +10311,11 @@
       <c r="C216" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>271</v>
       </c>
@@ -9623,8 +10325,11 @@
       <c r="C217" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>272</v>
       </c>
@@ -9634,8 +10339,11 @@
       <c r="C218" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>275</v>
       </c>
@@ -9645,8 +10353,11 @@
       <c r="C219" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>278</v>
       </c>
@@ -9656,8 +10367,11 @@
       <c r="C220" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>1126</v>
       </c>
@@ -9667,8 +10381,11 @@
       <c r="C221" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>677</v>
       </c>
@@ -9678,8 +10395,11 @@
       <c r="C222" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>680</v>
       </c>
@@ -9689,8 +10409,11 @@
       <c r="C223" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>279</v>
       </c>
@@ -9700,8 +10423,11 @@
       <c r="C224" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>280</v>
       </c>
@@ -9711,8 +10437,11 @@
       <c r="C225" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>283</v>
       </c>
@@ -9722,8 +10451,11 @@
       <c r="C226" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>284</v>
       </c>
@@ -9733,8 +10465,11 @@
       <c r="C227" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>687</v>
       </c>
@@ -9744,8 +10479,11 @@
       <c r="C228" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>285</v>
       </c>
@@ -9755,8 +10493,11 @@
       <c r="C229" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>288</v>
       </c>
@@ -9766,8 +10507,11 @@
       <c r="C230" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>289</v>
       </c>
@@ -9777,8 +10521,11 @@
       <c r="C231" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>291</v>
       </c>
@@ -9788,8 +10535,11 @@
       <c r="C232" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>1170</v>
       </c>
@@ -9799,8 +10549,11 @@
       <c r="C233" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>1193</v>
       </c>
@@ -9810,8 +10563,11 @@
       <c r="C234" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>292</v>
       </c>
@@ -9821,8 +10577,11 @@
       <c r="C235" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>690</v>
       </c>
@@ -9832,8 +10591,11 @@
       <c r="C236" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>293</v>
       </c>
@@ -9843,8 +10605,11 @@
       <c r="C237" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>695</v>
       </c>
@@ -9854,8 +10619,11 @@
       <c r="C238" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>294</v>
       </c>
@@ -9865,8 +10633,11 @@
       <c r="C239" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>297</v>
       </c>
@@ -9876,8 +10647,11 @@
       <c r="C240" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>298</v>
       </c>
@@ -9887,8 +10661,11 @@
       <c r="C241" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>299</v>
       </c>
@@ -9898,8 +10675,11 @@
       <c r="C242" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>699</v>
       </c>
@@ -9909,8 +10689,11 @@
       <c r="C243" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>702</v>
       </c>
@@ -9920,8 +10703,11 @@
       <c r="C244" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>705</v>
       </c>
@@ -9931,8 +10717,11 @@
       <c r="C245" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>708</v>
       </c>
@@ -9942,8 +10731,11 @@
       <c r="C246" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>711</v>
       </c>
@@ -9953,8 +10745,11 @@
       <c r="C247" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>714</v>
       </c>
@@ -9964,8 +10759,11 @@
       <c r="C248" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>717</v>
       </c>
@@ -9975,8 +10773,11 @@
       <c r="C249" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>720</v>
       </c>
@@ -9986,8 +10787,11 @@
       <c r="C250" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>301</v>
       </c>
@@ -9997,8 +10801,11 @@
       <c r="C251" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>302</v>
       </c>
@@ -10008,8 +10815,11 @@
       <c r="C252" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>305</v>
       </c>
@@ -10019,8 +10829,11 @@
       <c r="C253" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>308</v>
       </c>
@@ -10030,8 +10843,11 @@
       <c r="C254" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1271</v>
       </c>
@@ -10041,8 +10857,11 @@
       <c r="C255" t="s">
         <v>1272</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1051</v>
       </c>
@@ -10052,8 +10871,11 @@
       <c r="C256" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1127</v>
       </c>
@@ -10063,8 +10885,11 @@
       <c r="C257" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1129</v>
       </c>
@@ -10074,8 +10899,11 @@
       <c r="C258" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1053</v>
       </c>
@@ -10085,8 +10913,11 @@
       <c r="C259" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1172</v>
       </c>
@@ -10096,8 +10927,11 @@
       <c r="C260" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1131</v>
       </c>
@@ -10107,32 +10941,44 @@
       <c r="C261" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>726</v>
       </c>
       <c r="B262" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>730</v>
       </c>
       <c r="B263" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>728</v>
       </c>
       <c r="B264" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>1187</v>
       </c>
@@ -10142,8 +10988,11 @@
       <c r="C265" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>309</v>
       </c>
@@ -10153,8 +11002,11 @@
       <c r="C266" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>312</v>
       </c>
@@ -10164,8 +11016,11 @@
       <c r="C267" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>732</v>
       </c>
@@ -10175,8 +11030,11 @@
       <c r="C268" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>315</v>
       </c>
@@ -10186,8 +11044,11 @@
       <c r="C269" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>316</v>
       </c>
@@ -10197,8 +11058,11 @@
       <c r="C270" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>319</v>
       </c>
@@ -10208,8 +11072,11 @@
       <c r="C271" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>320</v>
       </c>
@@ -10219,8 +11086,11 @@
       <c r="C272" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>739</v>
       </c>
@@ -10230,8 +11100,11 @@
       <c r="C273" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>742</v>
       </c>
@@ -10241,8 +11114,11 @@
       <c r="C274" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>745</v>
       </c>
@@ -10252,8 +11128,11 @@
       <c r="C275" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>748</v>
       </c>
@@ -10263,8 +11142,11 @@
       <c r="C276" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>323</v>
       </c>
@@ -10274,8 +11156,11 @@
       <c r="C277" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>753</v>
       </c>
@@ -10285,8 +11170,11 @@
       <c r="C278" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>756</v>
       </c>
@@ -10296,8 +11184,11 @@
       <c r="C279" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>759</v>
       </c>
@@ -10307,8 +11198,11 @@
       <c r="C280" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>762</v>
       </c>
@@ -10318,8 +11212,11 @@
       <c r="C281" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>765</v>
       </c>
@@ -10329,8 +11226,11 @@
       <c r="C282" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>768</v>
       </c>
@@ -10340,8 +11240,11 @@
       <c r="C283" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>771</v>
       </c>
@@ -10351,8 +11254,11 @@
       <c r="C284" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>774</v>
       </c>
@@ -10362,8 +11268,11 @@
       <c r="C285" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>777</v>
       </c>
@@ -10373,8 +11282,11 @@
       <c r="C286" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>780</v>
       </c>
@@ -10384,8 +11296,11 @@
       <c r="C287" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>783</v>
       </c>
@@ -10395,8 +11310,11 @@
       <c r="C288" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>786</v>
       </c>
@@ -10406,8 +11324,11 @@
       <c r="C289" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>1174</v>
       </c>
@@ -10417,8 +11338,11 @@
       <c r="C290" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>789</v>
       </c>
@@ -10428,8 +11352,11 @@
       <c r="C291" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>792</v>
       </c>
@@ -10439,8 +11366,11 @@
       <c r="C292" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>795</v>
       </c>
@@ -10450,8 +11380,11 @@
       <c r="C293" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>798</v>
       </c>
@@ -10461,8 +11394,11 @@
       <c r="C294" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>801</v>
       </c>
@@ -10472,8 +11408,11 @@
       <c r="C295" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>1176</v>
       </c>
@@ -10483,8 +11422,11 @@
       <c r="C296" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>804</v>
       </c>
@@ -10494,8 +11436,11 @@
       <c r="C297" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>807</v>
       </c>
@@ -10505,8 +11450,11 @@
       <c r="C298" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>809</v>
       </c>
@@ -10516,8 +11464,11 @@
       <c r="C299" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>812</v>
       </c>
@@ -10527,8 +11478,11 @@
       <c r="C300" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>814</v>
       </c>
@@ -10538,8 +11492,11 @@
       <c r="C301" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>817</v>
       </c>
@@ -10549,8 +11506,11 @@
       <c r="C302" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>324</v>
       </c>
@@ -10560,8 +11520,11 @@
       <c r="C303" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>325</v>
       </c>
@@ -10571,8 +11534,11 @@
       <c r="C304" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>1177</v>
       </c>
@@ -10582,8 +11548,11 @@
       <c r="C305" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>1195</v>
       </c>
@@ -10593,8 +11562,11 @@
       <c r="C306" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>326</v>
       </c>
@@ -10604,8 +11576,11 @@
       <c r="C307" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>329</v>
       </c>
@@ -10615,16 +11590,22 @@
       <c r="C308" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>1676</v>
       </c>
       <c r="B309" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>330</v>
       </c>
@@ -10634,24 +11615,33 @@
       <c r="C310" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>828</v>
       </c>
       <c r="B311" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>331</v>
       </c>
       <c r="B312" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>332</v>
       </c>
@@ -10661,8 +11651,11 @@
       <c r="C313" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>335</v>
       </c>
@@ -10672,8 +11665,11 @@
       <c r="C314" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>336</v>
       </c>
@@ -10683,8 +11679,11 @@
       <c r="C315" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>337</v>
       </c>
@@ -10694,8 +11693,11 @@
       <c r="C316" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>338</v>
       </c>
@@ -10705,8 +11707,11 @@
       <c r="C317" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>339</v>
       </c>
@@ -10716,8 +11721,11 @@
       <c r="C318" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>340</v>
       </c>
@@ -10727,8 +11735,11 @@
       <c r="C319" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>829</v>
       </c>
@@ -10738,8 +11749,11 @@
       <c r="C320" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>1273</v>
       </c>
@@ -10749,8 +11763,11 @@
       <c r="C321" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>343</v>
       </c>
@@ -10760,8 +11777,11 @@
       <c r="C322" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>346</v>
       </c>
@@ -10771,8 +11791,11 @@
       <c r="C323" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>347</v>
       </c>
@@ -10782,8 +11805,11 @@
       <c r="C324" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>350</v>
       </c>
@@ -10793,8 +11819,11 @@
       <c r="C325" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>353</v>
       </c>
@@ -10804,8 +11833,11 @@
       <c r="C326" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>356</v>
       </c>
@@ -10815,24 +11847,33 @@
       <c r="C327" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>833</v>
       </c>
       <c r="B328" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>834</v>
       </c>
       <c r="B329" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>359</v>
       </c>
@@ -10842,8 +11883,11 @@
       <c r="C330" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>1076</v>
       </c>
@@ -10853,16 +11897,22 @@
       <c r="C331" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>836</v>
       </c>
       <c r="B332" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>1078</v>
       </c>
@@ -10872,32 +11922,44 @@
       <c r="C333" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>837</v>
       </c>
       <c r="B334" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>838</v>
       </c>
       <c r="B335" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>839</v>
       </c>
       <c r="B336" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>362</v>
       </c>
@@ -10907,8 +11969,11 @@
       <c r="C337" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>841</v>
       </c>
@@ -10918,16 +11983,22 @@
       <c r="C338" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>843</v>
       </c>
       <c r="B339" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1275</v>
       </c>
@@ -10937,8 +12008,11 @@
       <c r="C340" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1277</v>
       </c>
@@ -10948,32 +12022,44 @@
       <c r="C341" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>844</v>
       </c>
       <c r="B342" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>845</v>
       </c>
       <c r="B343" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>364</v>
       </c>
       <c r="B344" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>365</v>
       </c>
@@ -10983,8 +12069,11 @@
       <c r="C345" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1080</v>
       </c>
@@ -10994,24 +12083,33 @@
       <c r="C346" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>847</v>
       </c>
       <c r="B347" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>848</v>
       </c>
       <c r="B348" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1133</v>
       </c>
@@ -11021,8 +12119,11 @@
       <c r="C349" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>367</v>
       </c>
@@ -11032,8 +12133,11 @@
       <c r="C350" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>368</v>
       </c>
@@ -11043,8 +12147,11 @@
       <c r="C351" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>370</v>
       </c>
@@ -11054,8 +12161,11 @@
       <c r="C352" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>1179</v>
       </c>
@@ -11065,16 +12175,22 @@
       <c r="C353" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>851</v>
       </c>
       <c r="B354" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>372</v>
       </c>
@@ -11084,8 +12200,11 @@
       <c r="C355" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>374</v>
       </c>
@@ -11095,8 +12214,11 @@
       <c r="C356" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>376</v>
       </c>
@@ -11106,8 +12228,11 @@
       <c r="C357" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>378</v>
       </c>
@@ -11117,8 +12242,11 @@
       <c r="C358" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>381</v>
       </c>
@@ -11128,8 +12256,11 @@
       <c r="C359" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>383</v>
       </c>
@@ -11139,8 +12270,11 @@
       <c r="C360" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>856</v>
       </c>
@@ -11150,8 +12284,11 @@
       <c r="C361" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>386</v>
       </c>
@@ -11161,16 +12298,22 @@
       <c r="C362" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>859</v>
       </c>
       <c r="B363" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>387</v>
       </c>
@@ -11180,8 +12323,11 @@
       <c r="C364" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>1181</v>
       </c>
@@ -11191,8 +12337,11 @@
       <c r="C365" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>389</v>
       </c>
@@ -11202,64 +12351,88 @@
       <c r="C366" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>390</v>
       </c>
       <c r="B367" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>391</v>
       </c>
       <c r="B368" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>392</v>
       </c>
       <c r="B369" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>393</v>
       </c>
       <c r="B370" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>862</v>
       </c>
       <c r="B371" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>863</v>
       </c>
       <c r="B372" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>864</v>
       </c>
       <c r="B373" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>394</v>
       </c>
@@ -11269,8 +12442,11 @@
       <c r="C374" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>395</v>
       </c>
@@ -11280,8 +12456,11 @@
       <c r="C375" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>396</v>
       </c>
@@ -11291,16 +12470,22 @@
       <c r="C376" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>399</v>
       </c>
       <c r="B377" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E377">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>400</v>
       </c>
@@ -11310,16 +12495,22 @@
       <c r="C378" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G378">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>871</v>
       </c>
       <c r="B379" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G379">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>401</v>
       </c>
@@ -11329,8 +12520,11 @@
       <c r="C380" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>403</v>
       </c>
@@ -11340,16 +12534,22 @@
       <c r="C381" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>875</v>
       </c>
       <c r="B382" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>404</v>
       </c>
@@ -11359,8 +12559,11 @@
       <c r="C383" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>406</v>
       </c>
@@ -11370,16 +12573,22 @@
       <c r="C384" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>408</v>
       </c>
       <c r="B385" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>409</v>
       </c>
@@ -11389,24 +12598,33 @@
       <c r="C386" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>412</v>
       </c>
       <c r="B387" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>1678</v>
       </c>
       <c r="B388" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>413</v>
       </c>
@@ -11416,16 +12634,22 @@
       <c r="C389" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>879</v>
       </c>
       <c r="B390" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>415</v>
       </c>
@@ -11435,8 +12659,11 @@
       <c r="C391" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G391">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>418</v>
       </c>
@@ -11446,8 +12673,11 @@
       <c r="C392" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>419</v>
       </c>
@@ -11457,8 +12687,11 @@
       <c r="C393" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>422</v>
       </c>
@@ -11468,8 +12701,11 @@
       <c r="C394" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>425</v>
       </c>
@@ -11479,32 +12715,44 @@
       <c r="C395" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>427</v>
       </c>
       <c r="B396" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>1679</v>
       </c>
       <c r="B397" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1681</v>
       </c>
       <c r="B398" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1682</v>
       </c>
@@ -11514,8 +12762,11 @@
       <c r="C399" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>429</v>
       </c>
@@ -11525,8 +12776,11 @@
       <c r="C400" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>430</v>
       </c>
@@ -11536,8 +12790,11 @@
       <c r="C401" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1279</v>
       </c>
@@ -11547,8 +12804,11 @@
       <c r="C402" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1082</v>
       </c>
@@ -11558,8 +12818,11 @@
       <c r="C403" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1084</v>
       </c>
@@ -11569,8 +12832,11 @@
       <c r="C404" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>1045</v>
       </c>
@@ -11580,16 +12846,22 @@
       <c r="C405" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>884</v>
       </c>
       <c r="B406" t="s">
         <v>1604</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>433</v>
       </c>
@@ -11597,7 +12869,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>434</v>
       </c>
@@ -11607,8 +12879,11 @@
       <c r="C408" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>885</v>
       </c>
@@ -11618,8 +12893,11 @@
       <c r="C409" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>1086</v>
       </c>
@@ -11629,8 +12907,11 @@
       <c r="C410" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1088</v>
       </c>
@@ -11640,8 +12921,11 @@
       <c r="C411" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>437</v>
       </c>
@@ -11651,8 +12935,11 @@
       <c r="C412" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>886</v>
       </c>
@@ -11662,24 +12949,33 @@
       <c r="C413" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>887</v>
       </c>
       <c r="B414" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>888</v>
       </c>
       <c r="B415" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>889</v>
       </c>
@@ -11687,7 +12983,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1135</v>
       </c>
@@ -11697,8 +12993,11 @@
       <c r="C417" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>440</v>
       </c>
@@ -11708,16 +13007,22 @@
       <c r="C418" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>892</v>
       </c>
       <c r="B419" t="s">
         <v>1612</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1137</v>
       </c>
@@ -11727,8 +13032,11 @@
       <c r="C420" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H420">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1221</v>
       </c>
@@ -11738,24 +13046,33 @@
       <c r="C421" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>441</v>
       </c>
       <c r="B422" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D422">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>893</v>
       </c>
       <c r="B423" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1281</v>
       </c>
@@ -11765,8 +13082,11 @@
       <c r="C424" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D424">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>894</v>
       </c>
@@ -11776,24 +13096,33 @@
       <c r="C425" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>897</v>
       </c>
       <c r="B426" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>898</v>
       </c>
       <c r="B427" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1197</v>
       </c>
@@ -11803,16 +13132,22 @@
       <c r="C428" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>442</v>
       </c>
       <c r="B429" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>466</v>
       </c>
@@ -11823,7 +13158,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>899</v>
       </c>
@@ -11834,15 +13169,18 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>900</v>
       </c>
       <c r="B432" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F432">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1139</v>
       </c>
@@ -11852,16 +13190,22 @@
       <c r="C433" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>901</v>
       </c>
       <c r="B434" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1141</v>
       </c>
@@ -11871,8 +13215,11 @@
       <c r="C435" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>1055</v>
       </c>
@@ -11882,8 +13229,11 @@
       <c r="C436" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>443</v>
       </c>
@@ -11893,8 +13243,11 @@
       <c r="C437" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D437">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1143</v>
       </c>
@@ -11904,8 +13257,11 @@
       <c r="C438" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1144</v>
       </c>
@@ -11915,8 +13271,11 @@
       <c r="C439" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>1199</v>
       </c>
@@ -11926,8 +13285,11 @@
       <c r="C440" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1201</v>
       </c>
@@ -11937,8 +13299,11 @@
       <c r="C441" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F441">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1203</v>
       </c>
@@ -11948,8 +13313,11 @@
       <c r="C442" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F442">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1090</v>
       </c>
@@ -11959,24 +13327,33 @@
       <c r="C443" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>902</v>
       </c>
       <c r="B444" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>903</v>
       </c>
       <c r="B445" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1146</v>
       </c>
@@ -11986,8 +13363,11 @@
       <c r="C446" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1148</v>
       </c>
@@ -11997,8 +13377,11 @@
       <c r="C447" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>1150</v>
       </c>
@@ -12008,8 +13391,11 @@
       <c r="C448" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>1152</v>
       </c>
@@ -12019,16 +13405,22 @@
       <c r="C449" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>904</v>
       </c>
       <c r="B450" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1057</v>
       </c>
@@ -12038,8 +13430,11 @@
       <c r="C451" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>1059</v>
       </c>
@@ -12049,8 +13444,11 @@
       <c r="C452" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1205</v>
       </c>
@@ -12060,8 +13458,11 @@
       <c r="C453" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>446</v>
       </c>
@@ -12071,8 +13472,11 @@
       <c r="C454" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1154</v>
       </c>
@@ -12082,8 +13486,11 @@
       <c r="C455" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>1183</v>
       </c>
@@ -12093,8 +13500,11 @@
       <c r="C456" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>906</v>
       </c>
@@ -12104,8 +13514,11 @@
       <c r="C457" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>909</v>
       </c>
@@ -12115,8 +13528,11 @@
       <c r="C458" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>912</v>
       </c>
@@ -12126,8 +13542,11 @@
       <c r="C459" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G459">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>915</v>
       </c>
@@ -12137,8 +13556,11 @@
       <c r="C460" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>447</v>
       </c>
@@ -12148,16 +13570,22 @@
       <c r="C461" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>918</v>
       </c>
       <c r="B462" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>922</v>
       </c>
@@ -12167,8 +13595,11 @@
       <c r="C463" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G463">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>1185</v>
       </c>
@@ -12178,8 +13609,11 @@
       <c r="C464" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>925</v>
       </c>
@@ -12189,8 +13623,11 @@
       <c r="C465" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>927</v>
       </c>
@@ -12200,8 +13637,11 @@
       <c r="C466" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>929</v>
       </c>
@@ -12211,8 +13651,11 @@
       <c r="C467" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>931</v>
       </c>
@@ -12222,8 +13665,11 @@
       <c r="C468" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>933</v>
       </c>
@@ -12233,8 +13679,11 @@
       <c r="C469" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>935</v>
       </c>
@@ -12244,8 +13693,11 @@
       <c r="C470" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>937</v>
       </c>
@@ -12255,8 +13707,11 @@
       <c r="C471" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>939</v>
       </c>
@@ -12266,8 +13721,11 @@
       <c r="C472" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>941</v>
       </c>
@@ -12277,8 +13735,11 @@
       <c r="C473" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>943</v>
       </c>
@@ -12288,8 +13749,11 @@
       <c r="C474" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>945</v>
       </c>
@@ -12299,8 +13763,11 @@
       <c r="C475" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>947</v>
       </c>
@@ -12310,8 +13777,11 @@
       <c r="C476" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>448</v>
       </c>
@@ -12321,8 +13791,11 @@
       <c r="C477" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>950</v>
       </c>
@@ -12332,16 +13805,22 @@
       <c r="C478" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>464</v>
       </c>
       <c r="B479" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>450</v>
       </c>
@@ -12351,8 +13830,11 @@
       <c r="C480" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1156</v>
       </c>
@@ -12362,8 +13844,11 @@
       <c r="C481" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1158</v>
       </c>
@@ -12373,8 +13858,11 @@
       <c r="C482" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>453</v>
       </c>
@@ -12384,8 +13872,11 @@
       <c r="C483" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1160</v>
       </c>
@@ -12395,8 +13886,11 @@
       <c r="C484" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1161</v>
       </c>
@@ -12406,8 +13900,11 @@
       <c r="C485" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1067</v>
       </c>
@@ -12417,8 +13914,11 @@
       <c r="C486" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>456</v>
       </c>
@@ -12428,8 +13928,11 @@
       <c r="C487" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>457</v>
       </c>
@@ -12439,8 +13942,11 @@
       <c r="C488" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>460</v>
       </c>
@@ -12450,8 +13956,11 @@
       <c r="C489" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>461</v>
       </c>
@@ -12460,6 +13969,9 @@
       </c>
       <c r="C490" t="s">
         <v>463</v>
+      </c>
+      <c r="D490">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pathways data dictionary.xlsx
+++ b/pathways data dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/jeremy_cooper_gatesfoundation_org/Documents/Documents/GitHub/pathways-segmentation-public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2518" documentId="8_{D23518CC-E1D3-4ECE-9E98-7428ECDD5F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC0D157-18D3-4156-A7B1-6024230B7060}"/>
+  <xr:revisionPtr revIDLastSave="2698" documentId="8_{D23518CC-E1D3-4ECE-9E98-7428ECDD5F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460C35D4-A6ED-4FFA-B5A1-D59AB8DF36D1}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outcomes!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vulnerabilities!$A$1:$C$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vulnerabilities!$A$1:$I$501</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1902" uniqueCount="1698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1769">
   <si>
     <t>category</t>
   </si>
@@ -5107,21 +5107,12 @@
     <t>Woman.and.her.past.experiences</t>
   </si>
   <si>
-    <t>Healthcare.and.mental.models</t>
-  </si>
-  <si>
     <t>Natural.and.human.systems</t>
   </si>
   <si>
     <t>Household.relationships</t>
   </si>
   <si>
-    <t>Household.economics</t>
-  </si>
-  <si>
-    <t>Community.Support</t>
-  </si>
-  <si>
     <t>Distance Natal</t>
   </si>
   <si>
@@ -5135,6 +5126,228 @@
   </si>
   <si>
     <t>HH Dropout</t>
+  </si>
+  <si>
+    <t>Social.support</t>
+  </si>
+  <si>
+    <t>Health.and.mental.models</t>
+  </si>
+  <si>
+    <t>conflict_incidents_26plus</t>
+  </si>
+  <si>
+    <t>Conflict Incidents 26 Plus</t>
+  </si>
+  <si>
+    <t>working.yn</t>
+  </si>
+  <si>
+    <t>partner.working.yn</t>
+  </si>
+  <si>
+    <t>Partner Working Y/N</t>
+  </si>
+  <si>
+    <t>pastoralnoagro.yn</t>
+  </si>
+  <si>
+    <t>Pastoral No Agro Y/N</t>
+  </si>
+  <si>
+    <t>hh.members</t>
+  </si>
+  <si>
+    <t>num.biochild.house</t>
+  </si>
+  <si>
+    <t>Num Bio Children House</t>
+  </si>
+  <si>
+    <t>num.biochild.house.cat</t>
+  </si>
+  <si>
+    <t>Num Bio Children House Cat</t>
+  </si>
+  <si>
+    <t>orthodox</t>
+  </si>
+  <si>
+    <t>Religion: Orthodox</t>
+  </si>
+  <si>
+    <t>partner.working</t>
+  </si>
+  <si>
+    <t>Partner Working</t>
+  </si>
+  <si>
+    <t>partner.workingnow.yn</t>
+  </si>
+  <si>
+    <t>wd.index.cat</t>
+  </si>
+  <si>
+    <t>Woman Decision Index Cat</t>
+  </si>
+  <si>
+    <t>Respondent Working Y/N</t>
+  </si>
+  <si>
+    <t>Household.economics.and.living.conditions</t>
+  </si>
+  <si>
+    <t>Differene between woman and male partner's preference for children</t>
+  </si>
+  <si>
+    <t>Has the respondent ever been  married</t>
+  </si>
+  <si>
+    <t>Does the household have cows</t>
+  </si>
+  <si>
+    <t>Does the household have chickens</t>
+  </si>
+  <si>
+    <t>Does the household have goats</t>
+  </si>
+  <si>
+    <t>Does the household have horses</t>
+  </si>
+  <si>
+    <t>Does the household have sheep</t>
+  </si>
+  <si>
+    <t>Household shares a latrine with another household (binary)</t>
+  </si>
+  <si>
+    <t>Household has internet</t>
+  </si>
+  <si>
+    <t>Husband's education level</t>
+  </si>
+  <si>
+    <t>Husband's education level less than primary</t>
+  </si>
+  <si>
+    <t>Husbands education level more than primary</t>
+  </si>
+  <si>
+    <t>Location of the household latrine</t>
+  </si>
+  <si>
+    <t>Male age at first birth</t>
+  </si>
+  <si>
+    <t>Reason for not seeking healthcare: does not know</t>
+  </si>
+  <si>
+    <t>Reason for not seeking healthcare</t>
+  </si>
+  <si>
+    <t>Household member count</t>
+  </si>
+  <si>
+    <t>Household members sleeping</t>
+  </si>
+  <si>
+    <t>Child given micronutrients in previous 12 months</t>
+  </si>
+  <si>
+    <t>Reads newspaper</t>
+  </si>
+  <si>
+    <t>Number of children over 15 years of age (binary 4+)</t>
+  </si>
+  <si>
+    <t>Number of children under 5 years of age (binary 2+)</t>
+  </si>
+  <si>
+    <t>Number of children alive category</t>
+  </si>
+  <si>
+    <t>Number of children that have died</t>
+  </si>
+  <si>
+    <t>Number of children that have died category</t>
+  </si>
+  <si>
+    <t>Binary variable for number of children that have died</t>
+  </si>
+  <si>
+    <t>Number of biological kids living in the home</t>
+  </si>
+  <si>
+    <t>Number of biological kids living in the home (binary 4+)</t>
+  </si>
+  <si>
+    <t>Categorical variable for number of biological kids living in the household</t>
+  </si>
+  <si>
+    <t>Frequency that child is given solid food</t>
+  </si>
+  <si>
+    <t>Number of household members under the age of 15 (binary 3+)</t>
+  </si>
+  <si>
+    <t>Respondent occupation</t>
+  </si>
+  <si>
+    <t>Partner currently working</t>
+  </si>
+  <si>
+    <t>Partner does not currently reside at home</t>
+  </si>
+  <si>
+    <t>Partner education level</t>
+  </si>
+  <si>
+    <t>Categorical variable for partner education level</t>
+  </si>
+  <si>
+    <t>Household water is piped</t>
+  </si>
+  <si>
+    <t>Respondent's current partnership status</t>
+  </si>
+  <si>
+    <t>Categorical variable for respondent's religion</t>
+  </si>
+  <si>
+    <t>Gifts for sex given in the previous 12 months</t>
+  </si>
+  <si>
+    <t>Household has a shared toilet</t>
+  </si>
+  <si>
+    <t>Slum categorical variable</t>
+  </si>
+  <si>
+    <t>Source of family planning information is government</t>
+  </si>
+  <si>
+    <t>Location of toilet</t>
+  </si>
+  <si>
+    <t>Household watches TV</t>
+  </si>
+  <si>
+    <t>Household has a solid wall</t>
+  </si>
+  <si>
+    <t>Number of household members</t>
+  </si>
+  <si>
+    <t>Number biological children in household</t>
+  </si>
+  <si>
+    <t>Number biological children in household category</t>
+  </si>
+  <si>
+    <t>Respondent is of Orthodox faith</t>
+  </si>
+  <si>
+    <t>Categorical variable for woman decision making index</t>
   </si>
 </sst>
 </file>
@@ -7292,18 +7505,18 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:I490"/>
+  <dimension ref="A1:I501"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D491" sqref="D491"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C500" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
     <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
@@ -7326,19 +7539,19 @@
         <v>1687</v>
       </c>
       <c r="E1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F1" t="s">
         <v>1688</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1689</v>
       </c>
-      <c r="G1" t="s">
-        <v>1690</v>
-      </c>
       <c r="H1" t="s">
-        <v>1691</v>
+        <v>1717</v>
       </c>
       <c r="I1" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -7908,6 +8121,9 @@
       <c r="B42" t="s">
         <v>1661</v>
       </c>
+      <c r="C42" t="s">
+        <v>1718</v>
+      </c>
       <c r="D42">
         <v>1</v>
       </c>
@@ -8407,7 +8623,7 @@
         <v>1249</v>
       </c>
       <c r="B78" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C78" t="s">
         <v>1250</v>
@@ -8421,7 +8637,7 @@
         <v>1074</v>
       </c>
       <c r="B79" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C79" t="s">
         <v>1075</v>
@@ -9277,6 +9493,9 @@
       <c r="B140" t="s">
         <v>1666</v>
       </c>
+      <c r="C140" t="s">
+        <v>1719</v>
+      </c>
       <c r="G140">
         <v>1</v>
       </c>
@@ -9594,7 +9813,7 @@
         <v>1168</v>
       </c>
       <c r="B163" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C163" t="s">
         <v>1169</v>
@@ -9641,7 +9860,7 @@
       <c r="C166" t="s">
         <v>219</v>
       </c>
-      <c r="F166">
+      <c r="H166">
         <v>1</v>
       </c>
     </row>
@@ -9694,7 +9913,7 @@
       <c r="C170" t="s">
         <v>226</v>
       </c>
-      <c r="F170">
+      <c r="H170">
         <v>1</v>
       </c>
     </row>
@@ -9744,7 +9963,7 @@
       <c r="C174" t="s">
         <v>643</v>
       </c>
-      <c r="F174">
+      <c r="H174">
         <v>1</v>
       </c>
     </row>
@@ -9758,7 +9977,7 @@
       <c r="C175" t="s">
         <v>645</v>
       </c>
-      <c r="F175">
+      <c r="H175">
         <v>1</v>
       </c>
     </row>
@@ -9772,7 +9991,7 @@
       <c r="C176" t="s">
         <v>648</v>
       </c>
-      <c r="F176">
+      <c r="H176">
         <v>1</v>
       </c>
     </row>
@@ -9783,7 +10002,10 @@
       <c r="B177" t="s">
         <v>1686</v>
       </c>
-      <c r="F177">
+      <c r="C177" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H177">
         <v>1</v>
       </c>
     </row>
@@ -9794,7 +10016,10 @@
       <c r="B178" t="s">
         <v>1668</v>
       </c>
-      <c r="F178">
+      <c r="C178" t="s">
+        <v>1721</v>
+      </c>
+      <c r="H178">
         <v>1</v>
       </c>
     </row>
@@ -9805,7 +10030,10 @@
       <c r="B179" t="s">
         <v>1670</v>
       </c>
-      <c r="F179">
+      <c r="C179" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H179">
         <v>1</v>
       </c>
     </row>
@@ -9816,7 +10044,10 @@
       <c r="B180" t="s">
         <v>1672</v>
       </c>
-      <c r="F180">
+      <c r="C180" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H180">
         <v>1</v>
       </c>
     </row>
@@ -9827,7 +10058,10 @@
       <c r="B181" t="s">
         <v>1675</v>
       </c>
-      <c r="F181">
+      <c r="C181" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H181">
         <v>1</v>
       </c>
     </row>
@@ -9838,6 +10072,9 @@
       <c r="B182" t="s">
         <v>1529</v>
       </c>
+      <c r="C182" t="s">
+        <v>1725</v>
+      </c>
       <c r="F182">
         <v>1</v>
       </c>
@@ -9847,7 +10084,7 @@
         <v>1108</v>
       </c>
       <c r="B183" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="C183" t="s">
         <v>1109</v>
@@ -9917,7 +10154,7 @@
         <v>1110</v>
       </c>
       <c r="B188" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C188" t="s">
         <v>1111</v>
@@ -10003,6 +10240,9 @@
       <c r="B194" t="s">
         <v>1033</v>
       </c>
+      <c r="C194" t="s">
+        <v>1726</v>
+      </c>
       <c r="F194">
         <v>1</v>
       </c>
@@ -10952,6 +11192,9 @@
       <c r="B262" t="s">
         <v>727</v>
       </c>
+      <c r="C262" t="s">
+        <v>1727</v>
+      </c>
       <c r="G262">
         <v>1</v>
       </c>
@@ -10963,6 +11206,9 @@
       <c r="B263" t="s">
         <v>731</v>
       </c>
+      <c r="C263" t="s">
+        <v>1728</v>
+      </c>
       <c r="G263">
         <v>1</v>
       </c>
@@ -10974,6 +11220,9 @@
       <c r="B264" t="s">
         <v>729</v>
       </c>
+      <c r="C264" t="s">
+        <v>1729</v>
+      </c>
       <c r="G264">
         <v>1</v>
       </c>
@@ -11601,6 +11850,9 @@
       <c r="B309" t="s">
         <v>1677</v>
       </c>
+      <c r="C309" t="s">
+        <v>1730</v>
+      </c>
       <c r="F309">
         <v>1</v>
       </c>
@@ -11637,6 +11889,9 @@
       <c r="B312" t="s">
         <v>1551</v>
       </c>
+      <c r="C312" t="s">
+        <v>1731</v>
+      </c>
       <c r="G312">
         <v>1</v>
       </c>
@@ -11858,6 +12113,9 @@
       <c r="B328" t="s">
         <v>1564</v>
       </c>
+      <c r="C328" t="s">
+        <v>1732</v>
+      </c>
       <c r="E328">
         <v>1</v>
       </c>
@@ -11869,6 +12127,9 @@
       <c r="B329" t="s">
         <v>1565</v>
       </c>
+      <c r="C329" t="s">
+        <v>1733</v>
+      </c>
       <c r="E329">
         <v>1</v>
       </c>
@@ -11908,6 +12169,9 @@
       <c r="B332" t="s">
         <v>1567</v>
       </c>
+      <c r="C332" t="s">
+        <v>1733</v>
+      </c>
       <c r="E332">
         <v>1</v>
       </c>
@@ -11933,6 +12197,9 @@
       <c r="B334" t="s">
         <v>1569</v>
       </c>
+      <c r="C334" t="s">
+        <v>1733</v>
+      </c>
       <c r="E334">
         <v>1</v>
       </c>
@@ -11944,6 +12211,9 @@
       <c r="B335" t="s">
         <v>1570</v>
       </c>
+      <c r="C335" t="s">
+        <v>1733</v>
+      </c>
       <c r="E335">
         <v>1</v>
       </c>
@@ -11955,6 +12225,9 @@
       <c r="B336" t="s">
         <v>1571</v>
       </c>
+      <c r="C336" t="s">
+        <v>1733</v>
+      </c>
       <c r="E336">
         <v>1</v>
       </c>
@@ -11994,6 +12267,9 @@
       <c r="B339" t="s">
         <v>1572</v>
       </c>
+      <c r="C339" t="s">
+        <v>1733</v>
+      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -12033,6 +12309,9 @@
       <c r="B342" t="s">
         <v>1575</v>
       </c>
+      <c r="C342" t="s">
+        <v>1734</v>
+      </c>
       <c r="G342">
         <v>1</v>
       </c>
@@ -12044,6 +12323,9 @@
       <c r="B343" t="s">
         <v>1576</v>
       </c>
+      <c r="C343" t="s">
+        <v>1735</v>
+      </c>
       <c r="G343">
         <v>1</v>
       </c>
@@ -12055,6 +12337,9 @@
       <c r="B344" t="s">
         <v>1577</v>
       </c>
+      <c r="C344" t="s">
+        <v>1736</v>
+      </c>
       <c r="E344">
         <v>1</v>
       </c>
@@ -12186,6 +12471,9 @@
       <c r="B354" t="s">
         <v>1583</v>
       </c>
+      <c r="C354" t="s">
+        <v>1737</v>
+      </c>
       <c r="H354">
         <v>1</v>
       </c>
@@ -12309,6 +12597,9 @@
       <c r="B363" t="s">
         <v>1584</v>
       </c>
+      <c r="C363" t="s">
+        <v>1738</v>
+      </c>
       <c r="G363">
         <v>1</v>
       </c>
@@ -12362,6 +12653,9 @@
       <c r="B367" t="s">
         <v>1590</v>
       </c>
+      <c r="C367" t="s">
+        <v>1740</v>
+      </c>
       <c r="G367">
         <v>1</v>
       </c>
@@ -12373,6 +12667,9 @@
       <c r="B368" t="s">
         <v>1591</v>
       </c>
+      <c r="C368" t="s">
+        <v>1741</v>
+      </c>
       <c r="G368">
         <v>1</v>
       </c>
@@ -12384,6 +12681,9 @@
       <c r="B369" t="s">
         <v>1592</v>
       </c>
+      <c r="C369" t="s">
+        <v>1742</v>
+      </c>
       <c r="G369">
         <v>1</v>
       </c>
@@ -12395,6 +12695,9 @@
       <c r="B370" t="s">
         <v>1593</v>
       </c>
+      <c r="C370" t="s">
+        <v>1743</v>
+      </c>
       <c r="G370">
         <v>1</v>
       </c>
@@ -12406,6 +12709,9 @@
       <c r="B371" t="s">
         <v>1588</v>
       </c>
+      <c r="C371" t="s">
+        <v>1744</v>
+      </c>
       <c r="G371">
         <v>1</v>
       </c>
@@ -12417,6 +12723,9 @@
       <c r="B372" t="s">
         <v>1586</v>
       </c>
+      <c r="C372" t="s">
+        <v>1745</v>
+      </c>
       <c r="G372">
         <v>1</v>
       </c>
@@ -12428,6 +12737,9 @@
       <c r="B373" t="s">
         <v>1589</v>
       </c>
+      <c r="C373" t="s">
+        <v>1746</v>
+      </c>
       <c r="G373">
         <v>1</v>
       </c>
@@ -12481,6 +12793,9 @@
       <c r="B377" t="s">
         <v>1594</v>
       </c>
+      <c r="C377" t="s">
+        <v>1747</v>
+      </c>
       <c r="E377">
         <v>1</v>
       </c>
@@ -12506,6 +12821,9 @@
       <c r="B379" t="s">
         <v>1595</v>
       </c>
+      <c r="C379" t="s">
+        <v>1748</v>
+      </c>
       <c r="G379">
         <v>1</v>
       </c>
@@ -12545,6 +12863,9 @@
       <c r="B382" t="s">
         <v>1596</v>
       </c>
+      <c r="C382" t="s">
+        <v>1739</v>
+      </c>
       <c r="G382">
         <v>1</v>
       </c>
@@ -12584,6 +12905,9 @@
       <c r="B385" t="s">
         <v>1597</v>
       </c>
+      <c r="C385" t="s">
+        <v>1749</v>
+      </c>
       <c r="G385">
         <v>1</v>
       </c>
@@ -12609,6 +12933,9 @@
       <c r="B387" t="s">
         <v>1598</v>
       </c>
+      <c r="C387" t="s">
+        <v>1750</v>
+      </c>
       <c r="G387">
         <v>1</v>
       </c>
@@ -12620,6 +12947,9 @@
       <c r="B388" t="s">
         <v>1598</v>
       </c>
+      <c r="C388" t="s">
+        <v>1750</v>
+      </c>
       <c r="G388">
         <v>1</v>
       </c>
@@ -12645,6 +12975,9 @@
       <c r="B390" t="s">
         <v>1599</v>
       </c>
+      <c r="C390" t="s">
+        <v>1751</v>
+      </c>
       <c r="G390">
         <v>1</v>
       </c>
@@ -12726,6 +13059,9 @@
       <c r="B396" t="s">
         <v>1039</v>
       </c>
+      <c r="C396" t="s">
+        <v>1752</v>
+      </c>
       <c r="G396">
         <v>1</v>
       </c>
@@ -12737,6 +13073,9 @@
       <c r="B397" t="s">
         <v>1680</v>
       </c>
+      <c r="C397" t="s">
+        <v>1753</v>
+      </c>
       <c r="G397">
         <v>1</v>
       </c>
@@ -12748,6 +13087,9 @@
       <c r="B398" t="s">
         <v>1683</v>
       </c>
+      <c r="C398" t="s">
+        <v>1753</v>
+      </c>
       <c r="G398">
         <v>1</v>
       </c>
@@ -12857,6 +13199,9 @@
       <c r="B406" t="s">
         <v>1604</v>
       </c>
+      <c r="C406" t="s">
+        <v>1754</v>
+      </c>
       <c r="F406">
         <v>1</v>
       </c>
@@ -12960,6 +13305,9 @@
       <c r="B414" t="s">
         <v>1608</v>
       </c>
+      <c r="C414" t="s">
+        <v>955</v>
+      </c>
       <c r="D414">
         <v>1</v>
       </c>
@@ -12971,6 +13319,9 @@
       <c r="B415" t="s">
         <v>1609</v>
       </c>
+      <c r="C415" t="s">
+        <v>1755</v>
+      </c>
       <c r="D415">
         <v>1</v>
       </c>
@@ -13018,6 +13369,9 @@
       <c r="B419" t="s">
         <v>1612</v>
       </c>
+      <c r="C419" t="s">
+        <v>1756</v>
+      </c>
       <c r="D419">
         <v>1</v>
       </c>
@@ -13057,6 +13411,9 @@
       <c r="B422" t="s">
         <v>1615</v>
       </c>
+      <c r="C422" t="s">
+        <v>1757</v>
+      </c>
       <c r="D422">
         <v>1</v>
       </c>
@@ -13068,6 +13425,9 @@
       <c r="B423" t="s">
         <v>1616</v>
       </c>
+      <c r="C423" t="s">
+        <v>1758</v>
+      </c>
       <c r="F423">
         <v>1</v>
       </c>
@@ -13107,6 +13467,9 @@
       <c r="B426" t="s">
         <v>1618</v>
       </c>
+      <c r="C426" t="s">
+        <v>1759</v>
+      </c>
       <c r="F426">
         <v>1</v>
       </c>
@@ -13118,6 +13481,9 @@
       <c r="B427" t="s">
         <v>1619</v>
       </c>
+      <c r="C427" t="s">
+        <v>1759</v>
+      </c>
       <c r="F427">
         <v>1</v>
       </c>
@@ -13143,6 +13509,9 @@
       <c r="B429" t="s">
         <v>1621</v>
       </c>
+      <c r="C429" t="s">
+        <v>1760</v>
+      </c>
       <c r="E429">
         <v>1</v>
       </c>
@@ -13176,6 +13545,9 @@
       <c r="B432" t="s">
         <v>1623</v>
       </c>
+      <c r="C432" t="s">
+        <v>1761</v>
+      </c>
       <c r="F432">
         <v>1</v>
       </c>
@@ -13201,6 +13573,9 @@
       <c r="B434" t="s">
         <v>1625</v>
       </c>
+      <c r="C434" t="s">
+        <v>1761</v>
+      </c>
       <c r="F434">
         <v>1</v>
       </c>
@@ -13338,6 +13713,9 @@
       <c r="B444" t="s">
         <v>1038</v>
       </c>
+      <c r="C444" t="s">
+        <v>1762</v>
+      </c>
       <c r="H444">
         <v>1</v>
       </c>
@@ -13416,6 +13794,9 @@
       <c r="B450" t="s">
         <v>1639</v>
       </c>
+      <c r="C450" t="s">
+        <v>1763</v>
+      </c>
       <c r="F450">
         <v>1</v>
       </c>
@@ -13872,7 +14253,7 @@
       <c r="C483" t="s">
         <v>455</v>
       </c>
-      <c r="D483">
+      <c r="H483">
         <v>1</v>
       </c>
     </row>
@@ -13886,7 +14267,7 @@
       <c r="C484" t="s">
         <v>1128</v>
       </c>
-      <c r="D484">
+      <c r="H484">
         <v>1</v>
       </c>
     </row>
@@ -13900,7 +14281,7 @@
       <c r="C485" t="s">
         <v>1130</v>
       </c>
-      <c r="D485">
+      <c r="H485">
         <v>1</v>
       </c>
     </row>
@@ -13914,7 +14295,7 @@
       <c r="C486" t="s">
         <v>1054</v>
       </c>
-      <c r="D486">
+      <c r="H486">
         <v>1</v>
       </c>
     </row>
@@ -13928,7 +14309,7 @@
       <c r="C487" t="s">
         <v>953</v>
       </c>
-      <c r="D487">
+      <c r="H487">
         <v>1</v>
       </c>
     </row>
@@ -13942,7 +14323,7 @@
       <c r="C488" t="s">
         <v>459</v>
       </c>
-      <c r="D488">
+      <c r="H488">
         <v>1</v>
       </c>
     </row>
@@ -13974,12 +14355,156 @@
         <v>1</v>
       </c>
     </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1698</v>
+      </c>
+      <c r="G491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C493" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C494" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C495" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C497" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H497">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B499" t="s">
+        <v>414</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1750</v>
+      </c>
+      <c r="H499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C500" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C501" t="s">
+        <v>459</v>
+      </c>
+      <c r="H501">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C354" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C491">
-      <sortCondition ref="A1:A354"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:I501" xr:uid="{00000000-0001-0000-0B00-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
